--- a/Mappings/FLACCpainScale- STU3.xlsx
+++ b/Mappings/FLACCpainScale- STU3.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="630" yWindow="630" windowWidth="27495" windowHeight="13740" activeTab="3"/>
+    <workbookView xWindow="630" yWindow="630" windowWidth="27495" windowHeight="13740" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="334" uniqueCount="224">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="334" uniqueCount="227">
   <si>
     <t>Subject</t>
   </si>
@@ -640,78 +640,100 @@
     <t>.valueQuantity</t>
   </si>
   <si>
+    <t>.effectiveDateTime</t>
+  </si>
+  <si>
+    <t>.comment</t>
+  </si>
+  <si>
+    <t>equal</t>
+  </si>
+  <si>
+    <t>Checkbox searched for existing profiles / implementation on:</t>
+  </si>
+  <si>
+    <t>Checkbox!</t>
+  </si>
+  <si>
+    <t>Searchwords</t>
+  </si>
+  <si>
+    <t>Found results:</t>
+  </si>
+  <si>
+    <t>HL7 FHIR Specification</t>
+  </si>
+  <si>
+    <t>HL7 FHIR profiles</t>
+  </si>
+  <si>
+    <t>no relevant</t>
+  </si>
+  <si>
+    <t>HL7 FHIR profiles - latest version latest version (build)</t>
+  </si>
+  <si>
+    <t>HL7 FHIR extension registry</t>
+  </si>
+  <si>
+    <t>HL7 FHIR extension registry - latest version (build)</t>
+  </si>
+  <si>
+    <t>HL7 FHIR implementation guides (e.g. Argonaut)</t>
+  </si>
+  <si>
+    <t>Simplifier.net</t>
+  </si>
+  <si>
+    <t>Zulip (chat.fhir.org)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Google </t>
+  </si>
+  <si>
+    <t>FLACC, flacc pain score</t>
+  </si>
+  <si>
+    <t>FLACC, flacc pain scor</t>
+  </si>
+  <si>
     <t>.component
-slice Face</t>
-  </si>
-  <si>
-    <t>slice Face</t>
-  </si>
-  <si>
-    <t>.effectiveDateTime</t>
-  </si>
-  <si>
-    <t>.comment</t>
-  </si>
-  <si>
-    <t>equal</t>
-  </si>
-  <si>
-    <t>Checkbox searched for existing profiles / implementation on:</t>
-  </si>
-  <si>
-    <t>Checkbox!</t>
-  </si>
-  <si>
-    <t>Searchwords</t>
-  </si>
-  <si>
-    <t>Found results:</t>
-  </si>
-  <si>
-    <t>HL7 FHIR Specification</t>
-  </si>
-  <si>
-    <t>HL7 FHIR profiles</t>
-  </si>
-  <si>
-    <t>no relevant</t>
-  </si>
-  <si>
-    <t>HL7 FHIR profiles - latest version latest version (build)</t>
-  </si>
-  <si>
-    <t>HL7 FHIR extension registry</t>
-  </si>
-  <si>
-    <t>HL7 FHIR extension registry - latest version (build)</t>
-  </si>
-  <si>
-    <t>HL7 FHIR implementation guides (e.g. Argonaut)</t>
-  </si>
-  <si>
-    <t>Simplifier.net</t>
-  </si>
-  <si>
-    <t>Zulip (chat.fhir.org)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Google </t>
-  </si>
-  <si>
-    <t>FLACC, flacc pain score</t>
-  </si>
-  <si>
-    <t>FLACC, flacc pain scor</t>
+slice Face (valueCodeableConcept)</t>
+  </si>
+  <si>
+    <t>.component
+slice Legs
+(valueCodeableConcept)</t>
+  </si>
+  <si>
+    <t>.component
+slice Activity
+(valueCodeableConcept)</t>
+  </si>
+  <si>
+    <t>.component
+slice Cry
+(valueCodeableConcept)</t>
+  </si>
+  <si>
+    <t>.component
+slice Consolability (valueCodeableConcept)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="8">
+  <fonts count="9">
     <font>
       <sz val="10"/>
       <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
@@ -843,36 +865,36 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
@@ -884,19 +906,22 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1835,8 +1860,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -1848,82 +1873,82 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" t="s">
+        <v>206</v>
+      </c>
+      <c r="B1" t="s">
+        <v>207</v>
+      </c>
+      <c r="C1" t="s">
         <v>208</v>
       </c>
-      <c r="B1" t="s">
+      <c r="F1" t="s">
         <v>209</v>
-      </c>
-      <c r="C1" t="s">
-        <v>210</v>
-      </c>
-      <c r="F1" t="s">
-        <v>211</v>
       </c>
     </row>
     <row r="2" spans="1:6">
       <c r="A2" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="C3" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="F3" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
     </row>
     <row r="8" spans="1:6">
       <c r="A8" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="C8" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
     </row>
     <row r="9" spans="1:6">
       <c r="A9" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="C9" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="F9" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
     </row>
     <row r="10" spans="1:6">
       <c r="A10" t="s">
+        <v>219</v>
+      </c>
+      <c r="C10" t="s">
         <v>221</v>
       </c>
-      <c r="C10" t="s">
-        <v>223</v>
-      </c>
       <c r="F10" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
     </row>
   </sheetData>
@@ -1935,8 +1960,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:T11"/>
   <sheetViews>
-    <sheetView topLeftCell="I1" workbookViewId="0">
-      <selection activeCell="Q9" sqref="Q9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="O9" sqref="O9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -2030,7 +2055,7 @@
         <v>201</v>
       </c>
       <c r="P3" s="17" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="Q3" s="4"/>
       <c r="R3" s="4"/>
@@ -2069,7 +2094,7 @@
         <v>202</v>
       </c>
       <c r="P4" s="15" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="Q4" s="15"/>
       <c r="R4" s="15"/>
@@ -2078,7 +2103,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="5" spans="2:20" ht="25.5">
+    <row r="5" spans="2:20" ht="51">
       <c r="B5" s="11"/>
       <c r="C5" s="12" t="s">
         <v>84</v>
@@ -2106,11 +2131,11 @@
         <v>88</v>
       </c>
       <c r="N5" s="2"/>
-      <c r="O5" s="15" t="s">
-        <v>203</v>
+      <c r="O5" s="19" t="s">
+        <v>222</v>
       </c>
       <c r="P5" s="15" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="Q5" s="15" t="s">
         <v>2</v>
@@ -2121,7 +2146,7 @@
       </c>
       <c r="T5" s="2"/>
     </row>
-    <row r="6" spans="2:20" ht="25.5">
+    <row r="6" spans="2:20" ht="51">
       <c r="B6" s="11"/>
       <c r="C6" s="12" t="s">
         <v>90</v>
@@ -2149,11 +2174,11 @@
         <v>93</v>
       </c>
       <c r="N6" s="2"/>
-      <c r="O6" s="15" t="s">
-        <v>203</v>
+      <c r="O6" s="19" t="s">
+        <v>223</v>
       </c>
       <c r="P6" s="15" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="Q6" s="15" t="s">
         <v>2</v>
@@ -2164,7 +2189,7 @@
       </c>
       <c r="T6" s="2"/>
     </row>
-    <row r="7" spans="2:20" ht="25.5">
+    <row r="7" spans="2:20" ht="51">
       <c r="B7" s="11"/>
       <c r="C7" s="12" t="s">
         <v>95</v>
@@ -2192,11 +2217,11 @@
         <v>98</v>
       </c>
       <c r="N7" s="2"/>
-      <c r="O7" s="15" t="s">
-        <v>203</v>
+      <c r="O7" s="19" t="s">
+        <v>224</v>
       </c>
       <c r="P7" s="15" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="Q7" s="15" t="s">
         <v>2</v>
@@ -2207,7 +2232,7 @@
       </c>
       <c r="T7" s="2"/>
     </row>
-    <row r="8" spans="2:20" ht="25.5">
+    <row r="8" spans="2:20" ht="51">
       <c r="B8" s="11"/>
       <c r="C8" s="12" t="s">
         <v>100</v>
@@ -2235,11 +2260,11 @@
         <v>103</v>
       </c>
       <c r="N8" s="2"/>
-      <c r="O8" s="15" t="s">
-        <v>203</v>
+      <c r="O8" s="19" t="s">
+        <v>225</v>
       </c>
       <c r="P8" s="15" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="Q8" s="15" t="s">
         <v>2</v>
@@ -2250,7 +2275,7 @@
       </c>
       <c r="T8" s="2"/>
     </row>
-    <row r="9" spans="2:20">
+    <row r="9" spans="2:20" ht="51">
       <c r="B9" s="11"/>
       <c r="C9" s="12" t="s">
         <v>105</v>
@@ -2278,11 +2303,11 @@
         <v>108</v>
       </c>
       <c r="N9" s="2"/>
-      <c r="O9" s="15" t="s">
-        <v>204</v>
+      <c r="O9" s="19" t="s">
+        <v>226</v>
       </c>
       <c r="P9" s="15" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="Q9" s="15" t="s">
         <v>2</v>
@@ -2322,10 +2347,10 @@
       </c>
       <c r="N10" s="2"/>
       <c r="O10" s="15" t="s">
+        <v>203</v>
+      </c>
+      <c r="P10" s="15" t="s">
         <v>205</v>
-      </c>
-      <c r="P10" s="15" t="s">
-        <v>207</v>
       </c>
       <c r="Q10" s="15"/>
       <c r="R10" s="15"/>
@@ -2363,10 +2388,10 @@
         <v>121</v>
       </c>
       <c r="O11" s="15" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="P11" s="15" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="Q11" s="15"/>
       <c r="R11" s="15"/>
